--- a/固定资产废弃照片粘贴表.xlsx
+++ b/固定资产废弃照片粘贴表.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="6435" windowHeight="7380"/>
   </bookViews>
   <sheets>
-    <sheet name="废弃2020.5" sheetId="4" r:id="rId1"/>
+    <sheet name="废弃2023.10" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -958,6 +958,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,40 +997,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,6 +1146,182 @@
         <a:xfrm>
           <a:off x="2318354" y="492125"/>
           <a:ext cx="2440311" cy="1830233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473496</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>481328</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1085848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4906538" y="5634883"/>
+          <a:ext cx="2762248" cy="2065232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1086206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="2420897"/>
+          <a:ext cx="2000250" cy="2675334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323228</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>252724</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1019173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2361578" y="2371725"/>
+          <a:ext cx="1986896" cy="2657473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466016</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>367025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1028696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2173885" y="5702580"/>
+          <a:ext cx="2619372" cy="1958409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1459,30 +1635,30 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="18">
         <v>60001340</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1494,9 +1670,9 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1508,9 +1684,9 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1522,9 +1698,9 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1536,9 +1712,9 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1550,9 +1726,9 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1564,9 +1740,9 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1578,9 +1754,9 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1592,9 +1768,9 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1606,9 +1782,9 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1620,9 +1796,9 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1634,11 +1810,13 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="18">
+        <v>60001146</v>
+      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1650,9 +1828,9 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1664,9 +1842,9 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1678,9 +1856,9 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1692,9 +1870,9 @@
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1706,9 +1884,9 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1720,9 +1898,9 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1734,9 +1912,9 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1748,9 +1926,9 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1762,9 +1940,9 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1775,10 +1953,10 @@
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+    <row r="23" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1790,11 +1968,13 @@
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>3</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="18">
+        <v>60001423</v>
+      </c>
+      <c r="C24" s="19"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1806,9 +1986,9 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1820,9 +2000,9 @@
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1834,9 +2014,9 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1848,9 +2028,9 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1862,9 +2042,9 @@
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1876,9 +2056,9 @@
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1890,9 +2070,9 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1904,9 +2084,9 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1918,9 +2098,9 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1931,10 +2111,10 @@
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
+    <row r="34" spans="1:12" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -1946,11 +2126,11 @@
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
+      <c r="A35" s="15">
         <v>4</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1962,9 +2142,9 @@
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1976,9 +2156,9 @@
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1990,9 +2170,9 @@
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2004,9 +2184,9 @@
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -2018,9 +2198,9 @@
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -2032,9 +2212,9 @@
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2046,9 +2226,9 @@
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -2060,9 +2240,9 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -2074,9 +2254,9 @@
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2088,9 +2268,9 @@
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="11"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -2102,11 +2282,11 @@
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="19">
+      <c r="A46" s="15">
         <v>5</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2118,9 +2298,9 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2132,9 +2312,9 @@
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -2146,9 +2326,9 @@
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -2160,9 +2340,9 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2174,9 +2354,9 @@
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="20"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -2188,9 +2368,9 @@
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="20"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -2202,9 +2382,9 @@
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -2216,9 +2396,9 @@
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2230,9 +2410,9 @@
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2244,9 +2424,9 @@
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="11"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -2258,11 +2438,11 @@
       <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="19">
+      <c r="A57" s="15">
         <v>6</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2274,9 +2454,9 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="20"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -2288,9 +2468,9 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="20"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2302,9 +2482,9 @@
       <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="20"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2316,9 +2496,9 @@
       <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="20"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2330,9 +2510,9 @@
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="20"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -2344,9 +2524,9 @@
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="20"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -2358,9 +2538,9 @@
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="20"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -2372,9 +2552,9 @@
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="20"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -2386,9 +2566,9 @@
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="20"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2400,9 +2580,9 @@
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="11"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -2414,11 +2594,11 @@
       <c r="L67" s="13"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="19">
+      <c r="A68" s="15">
         <v>7</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="2"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2430,9 +2610,9 @@
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="20"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -2444,9 +2624,9 @@
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="20"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -2458,9 +2638,9 @@
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="20"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -2472,9 +2652,9 @@
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="20"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -2486,9 +2666,9 @@
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="20"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2500,9 +2680,9 @@
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="20"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -2514,9 +2694,9 @@
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="20"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -2528,9 +2708,9 @@
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="20"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -2542,9 +2722,9 @@
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="20"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -2556,9 +2736,9 @@
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -2570,11 +2750,11 @@
       <c r="L78" s="13"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="19">
+      <c r="A79" s="15">
         <v>8</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="2"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2586,9 +2766,9 @@
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="20"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -2600,9 +2780,9 @@
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A81" s="20"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -2614,9 +2794,9 @@
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" s="20"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -2628,9 +2808,9 @@
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A83" s="20"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -2642,9 +2822,9 @@
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A84" s="20"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -2656,9 +2836,9 @@
       <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A85" s="20"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -2670,9 +2850,9 @@
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A86" s="20"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -2684,9 +2864,9 @@
       <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A87" s="20"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -2698,9 +2878,9 @@
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A88" s="20"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -2712,9 +2892,9 @@
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="28"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -2726,11 +2906,11 @@
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A90" s="19">
+      <c r="A90" s="15">
         <v>9</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="2"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -2742,9 +2922,9 @@
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A91" s="20"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -2756,9 +2936,9 @@
       <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A92" s="20"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="25"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -2770,9 +2950,9 @@
       <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A93" s="20"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -2784,9 +2964,9 @@
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A94" s="20"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="25"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -2798,9 +2978,9 @@
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A95" s="20"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -2812,9 +2992,9 @@
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A96" s="20"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -2826,9 +3006,9 @@
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A97" s="20"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -2840,9 +3020,9 @@
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A98" s="20"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -2854,9 +3034,9 @@
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A99" s="20"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="5"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -2868,9 +3048,9 @@
       <c r="L99" s="7"/>
     </row>
     <row r="100" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="30"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="11"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -2882,11 +3062,11 @@
       <c r="L100" s="13"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A101" s="19">
+      <c r="A101" s="15">
         <v>10</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="2"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -2898,9 +3078,9 @@
       <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A102" s="20"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="25"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="21"/>
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -2912,9 +3092,9 @@
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A103" s="20"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="25"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="21"/>
       <c r="D103" s="5"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -2926,9 +3106,9 @@
       <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A104" s="20"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="25"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -2940,9 +3120,9 @@
       <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A105" s="20"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="25"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="21"/>
       <c r="D105" s="5"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -2954,9 +3134,9 @@
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A106" s="20"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="25"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -2968,9 +3148,9 @@
       <c r="L106" s="7"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A107" s="20"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="5"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -2982,9 +3162,9 @@
       <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A108" s="20"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="5"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -2996,9 +3176,9 @@
       <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A109" s="20"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="21"/>
       <c r="D109" s="5"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -3010,9 +3190,9 @@
       <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A110" s="20"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="25"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -3024,9 +3204,9 @@
       <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="28"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="30"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="23"/>
       <c r="D111" s="11"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -3038,11 +3218,11 @@
       <c r="L111" s="13"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A112" s="19">
+      <c r="A112" s="15">
         <v>11</v>
       </c>
-      <c r="B112" s="22"/>
-      <c r="C112" s="23"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="2"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -3054,9 +3234,9 @@
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A113" s="20"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="25"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
       <c r="D113" s="5"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -3068,9 +3248,9 @@
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A114" s="20"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="25"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -3082,9 +3262,9 @@
       <c r="L114" s="7"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A115" s="20"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="25"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="21"/>
       <c r="D115" s="5"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -3096,9 +3276,9 @@
       <c r="L115" s="7"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A116" s="20"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="25"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="21"/>
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -3110,9 +3290,9 @@
       <c r="L116" s="7"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A117" s="20"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="25"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="21"/>
       <c r="D117" s="5"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -3124,9 +3304,9 @@
       <c r="L117" s="7"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A118" s="20"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="25"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="21"/>
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -3138,9 +3318,9 @@
       <c r="L118" s="7"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A119" s="20"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="25"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="5"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -3152,9 +3332,9 @@
       <c r="L119" s="7"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A120" s="20"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="21"/>
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -3166,9 +3346,9 @@
       <c r="L120" s="7"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A121" s="20"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="25"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
       <c r="D121" s="5"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -3180,9 +3360,9 @@
       <c r="L121" s="7"/>
     </row>
     <row r="122" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="28"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="30"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="23"/>
       <c r="D122" s="11"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -3194,11 +3374,11 @@
       <c r="L122" s="13"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A123" s="19">
+      <c r="A123" s="15">
         <v>12</v>
       </c>
-      <c r="B123" s="22"/>
-      <c r="C123" s="23"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="2"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -3210,9 +3390,9 @@
       <c r="L123" s="4"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A124" s="20"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="25"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="21"/>
       <c r="D124" s="5"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -3224,9 +3404,9 @@
       <c r="L124" s="7"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A125" s="20"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="25"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="21"/>
       <c r="D125" s="5"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -3238,9 +3418,9 @@
       <c r="L125" s="7"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A126" s="20"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="25"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="21"/>
       <c r="D126" s="5"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -3252,9 +3432,9 @@
       <c r="L126" s="7"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A127" s="20"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="25"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="21"/>
       <c r="D127" s="5"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -3266,9 +3446,9 @@
       <c r="L127" s="7"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A128" s="20"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="25"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="21"/>
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -3280,9 +3460,9 @@
       <c r="L128" s="7"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A129" s="20"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="25"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
       <c r="D129" s="5"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -3294,9 +3474,9 @@
       <c r="L129" s="7"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A130" s="20"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="25"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="21"/>
       <c r="D130" s="5"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -3308,9 +3488,9 @@
       <c r="L130" s="7"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A131" s="20"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="21"/>
       <c r="D131" s="5"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -3322,9 +3502,9 @@
       <c r="L131" s="7"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A132" s="20"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="25"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="21"/>
       <c r="D132" s="5"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -3336,9 +3516,9 @@
       <c r="L132" s="7"/>
     </row>
     <row r="133" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="28"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="30"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="23"/>
       <c r="D133" s="11"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -3351,6 +3531,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:C12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:C23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="B24:C34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="B35:C45"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="B46:C56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:C67"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="B68:C78"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="B79:C89"/>
     <mergeCell ref="A123:A133"/>
     <mergeCell ref="B123:C133"/>
     <mergeCell ref="A90:A100"/>
@@ -3359,24 +3557,6 @@
     <mergeCell ref="B101:C111"/>
     <mergeCell ref="A112:A122"/>
     <mergeCell ref="B112:C122"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B57:C67"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="B68:C78"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="B79:C89"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="B24:C34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="B35:C45"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="B46:C56"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:C12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:C23"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
